--- a/document/参考図.xlsx
+++ b/document/参考図.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>※Strategy</t>
   </si>
   <si>
     <t>※decorator</t>
+  </si>
+  <si>
+    <t>※Factory</t>
+  </si>
+  <si>
+    <t>※Observer</t>
   </si>
 </sst>
 </file>
@@ -187,6 +193,171 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="New WikiFactoryMethod.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="466725" y="9020175"/>
+          <a:ext cx="6991350" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="Abstract Factory Pattern UML Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="923925" y="13487400"/>
+          <a:ext cx="5334000" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/8/8d/Observer.svg/500px-Observer.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="18688050"/>
+          <a:ext cx="4762500" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -477,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A24"/>
+  <dimension ref="A2:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +664,16 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
